--- a/djangoProject/webGlycoEnzDB/static/CRISPR/gene_transcript.xlsx
+++ b/djangoProject/webGlycoEnzDB/static/CRISPR/gene_transcript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neel\Box\cbe-neel\cbe-neel-shared\Website_management\GlycoEnzDB\CRISPR2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neel\Documents\GitHub\webGlycoEnzDB\djangoProject\webGlycoEnzDB\static\CRISPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F610DAA1-2DBB-4ACC-86B7-F135BDE5DF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D133D-D976-43A9-BA33-5173034E4DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="811">
   <si>
     <t>Gene</t>
   </si>
@@ -2391,13 +2391,88 @@
   </si>
   <si>
     <t>ENST00000243776</t>
+  </si>
+  <si>
+    <t>B4GALT1</t>
+  </si>
+  <si>
+    <t>ENST00000379731</t>
+  </si>
+  <si>
+    <t>ALG1</t>
+  </si>
+  <si>
+    <t>ENST00000262374</t>
+  </si>
+  <si>
+    <t>CEMIP</t>
+  </si>
+  <si>
+    <t>ENST00000394685</t>
+  </si>
+  <si>
+    <t>CHST1</t>
+  </si>
+  <si>
+    <t>ENST00000308064</t>
+  </si>
+  <si>
+    <t>ALG10</t>
+  </si>
+  <si>
+    <t>ENST00000266483</t>
+  </si>
+  <si>
+    <t>GBA1</t>
+  </si>
+  <si>
+    <t>UGT1A3</t>
+  </si>
+  <si>
+    <t>ENST00000482026</t>
+  </si>
+  <si>
+    <t>ARSA</t>
+  </si>
+  <si>
+    <t>ENST00000216124</t>
+  </si>
+  <si>
+    <t>FUT1</t>
+  </si>
+  <si>
+    <t>ENST00000645652</t>
+  </si>
+  <si>
+    <t>G6PC1</t>
+  </si>
+  <si>
+    <t>ENST00000253801</t>
+  </si>
+  <si>
+    <t>DSE</t>
+  </si>
+  <si>
+    <t>ENST00000644252</t>
+  </si>
+  <si>
+    <t>UGT1A1</t>
+  </si>
+  <si>
+    <t>ENST00000305208</t>
+  </si>
+  <si>
+    <t>UGT1A5</t>
+  </si>
+  <si>
+    <t>ENST00000373414</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,6 +2482,17 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2453,12 +2539,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2761,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C396"/>
+  <dimension ref="A1:C409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2775,7 +2867,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -7175,6 +7267,149 @@
       </c>
       <c r="C396" t="s">
         <v>711</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C397" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C398" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C399" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C400" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C401" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C402" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C403" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C404" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C405" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C406" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C407" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C408" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C409" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
